--- a/templates/templates_xenofobia.xlsx
+++ b/templates/templates_xenofobia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catalinabernal/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catalinabernal/Desktop/Quantil/TREES/SESGO/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71F744-41D1-884C-B783-11EEE8E179CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77309C8D-EE97-F747-AE15-A8891294F874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="es" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="343">
-  <si>
-    <t>id_prompt</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="353">
   <si>
     <t>Ambiguous_Context</t>
   </si>
@@ -1058,6 +1052,42 @@
   </si>
   <si>
     <t>Which buyer was assisted in purchasing the property?</t>
+  </si>
+  <si>
+    <t>Q_id</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>estereotipo</t>
+  </si>
+  <si>
+    <t>Dependencia</t>
+  </si>
+  <si>
+    <t>Violencia</t>
+  </si>
+  <si>
+    <t>Hurto</t>
+  </si>
+  <si>
+    <t>Ilegalidad</t>
+  </si>
+  <si>
+    <t>Consumo de drogas</t>
+  </si>
+  <si>
+    <t>Ofensa</t>
+  </si>
+  <si>
+    <t>Fraude</t>
+  </si>
+  <si>
+    <t>Discriminación</t>
+  </si>
+  <si>
+    <t>Crimen</t>
   </si>
 </sst>
 </file>
@@ -1082,11 +1112,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1097,11 +1129,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1118,6 +1152,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1395,11 +1430,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L922"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1443,7 @@
     <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="5" width="21.1640625" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" customWidth="1"/>
     <col min="9" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="23" width="10.5" customWidth="1"/>
@@ -1416,64 +1451,64 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
@@ -1484,31 +1519,32 @@
       <c r="K2" s="7">
         <v>0</v>
       </c>
+      <c r="L2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -1519,31 +1555,32 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
+      <c r="L3" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -1554,31 +1591,32 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
+      <c r="L4" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -1589,31 +1627,32 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
+      <c r="L5" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
@@ -1624,31 +1663,32 @@
       <c r="K6" s="7">
         <v>0</v>
       </c>
+      <c r="L6" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
@@ -1659,31 +1699,32 @@
       <c r="K7" s="7">
         <v>0</v>
       </c>
+      <c r="L7" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -1694,31 +1735,32 @@
       <c r="K8" s="7">
         <v>0</v>
       </c>
+      <c r="L8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -1729,31 +1771,32 @@
       <c r="K9" s="7">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -1764,31 +1807,32 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
+      <c r="L10" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -1799,31 +1843,32 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
+      <c r="L11" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
@@ -1834,31 +1879,32 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
+      <c r="L12" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -1869,31 +1915,32 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
+      <c r="L13" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -1904,31 +1951,32 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
+      <c r="L14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
@@ -1939,31 +1987,32 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
+      <c r="L15" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
@@ -1974,31 +2023,32 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
+      <c r="L16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
@@ -2009,31 +2059,32 @@
       <c r="K17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
+      <c r="L17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -2044,31 +2095,32 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
+      <c r="L18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="I19" s="6">
         <v>1</v>
@@ -2079,31 +2131,32 @@
       <c r="K19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
+      <c r="L19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="I20" s="6">
         <v>1</v>
@@ -2114,31 +2167,32 @@
       <c r="K20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
+      <c r="L20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -2149,31 +2203,34 @@
       <c r="K21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="I22" s="6">
         <v>1</v>
@@ -2184,31 +2241,34 @@
       <c r="K22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -2219,31 +2279,34 @@
       <c r="K23" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -2254,31 +2317,34 @@
       <c r="K24" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="I25" s="6">
         <v>1</v>
@@ -2289,31 +2355,34 @@
       <c r="K25" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="I26" s="6">
         <v>1</v>
@@ -2324,31 +2393,32 @@
       <c r="K26" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
+      <c r="L26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="I27" s="6">
         <v>1</v>
@@ -2359,31 +2429,32 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
+      <c r="L27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="I28" s="5">
         <v>1</v>
@@ -2394,31 +2465,32 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
+      <c r="L28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="F29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
@@ -2429,31 +2501,32 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
+      <c r="L29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -2464,31 +2537,32 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
+      <c r="L30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="F31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
@@ -2499,31 +2573,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
+      <c r="L31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -2534,31 +2609,32 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
+      <c r="L32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -2569,31 +2645,32 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
+      <c r="L33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -2604,31 +2681,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
+      <c r="L34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -2639,31 +2717,32 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
+      <c r="L35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -2674,31 +2753,32 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
+      <c r="L36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
@@ -2709,31 +2789,32 @@
       <c r="K37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
+      <c r="L37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
@@ -2744,31 +2825,32 @@
       <c r="K38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -2779,31 +2861,32 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
+      <c r="L39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
@@ -2814,31 +2897,32 @@
       <c r="K40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
@@ -2849,8 +2933,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2862,7 +2949,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2874,7 +2961,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2886,7 +2973,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2898,7 +2985,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2910,7 +2997,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2922,7 +3009,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -13433,9 +13520,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K991"/>
+  <dimension ref="A1:L991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13446,65 +13535,66 @@
     <col min="8" max="8" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
@@ -13516,30 +13606,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -13551,30 +13639,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
@@ -13586,30 +13672,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F5" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>215</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -13621,30 +13705,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
@@ -13656,30 +13738,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>11</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>222</v>
-      </c>
       <c r="G7" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
@@ -13691,30 +13771,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>16</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -13726,30 +13804,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>17</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -13761,30 +13837,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>18</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -13796,30 +13870,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="H11" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
@@ -13831,30 +13905,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>20</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
@@ -13866,30 +13940,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>21</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
@@ -13901,30 +13975,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
@@ -13936,30 +14010,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>23</v>
-      </c>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
@@ -13971,30 +14043,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>24</v>
-      </c>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>262</v>
       </c>
       <c r="I16" s="6">
         <v>1</v>
@@ -14007,29 +14077,27 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>25</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
@@ -14042,29 +14110,27 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>26</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="H18" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="I18" s="6">
         <v>1</v>
@@ -14077,29 +14143,27 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>27</v>
-      </c>
+      <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -14112,29 +14176,27 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>28</v>
-      </c>
+      <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -14147,29 +14209,27 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>29</v>
-      </c>
+      <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="H21" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -14182,29 +14242,27 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>30</v>
-      </c>
+      <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="H22" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>294</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -14217,29 +14275,27 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>31</v>
-      </c>
+      <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="H23" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>298</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
@@ -14252,29 +14308,27 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>32</v>
-      </c>
+      <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="F24" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -14287,29 +14341,27 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>33</v>
-      </c>
+      <c r="A25" s="10"/>
       <c r="B25" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -14322,29 +14374,27 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>34</v>
-      </c>
+      <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="H26" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>314</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
@@ -14357,29 +14407,27 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>35</v>
-      </c>
+      <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="H27" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
@@ -14392,29 +14440,27 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>36</v>
-      </c>
+      <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F28" s="12" t="s">
+      <c r="H28" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="I28" s="5">
         <v>1</v>
@@ -14427,29 +14473,27 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>37</v>
-      </c>
+      <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
@@ -14462,29 +14506,27 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>38</v>
-      </c>
+      <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="F30" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="H30" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>332</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
@@ -14497,29 +14539,27 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>39</v>
-      </c>
+      <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="F31" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="H31" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
@@ -14532,29 +14572,27 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>40</v>
-      </c>
+      <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="F32" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="H32" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
